--- a/cell_type_reports/_FCA_cell_type_lists.xlsx
+++ b/cell_type_reports/_FCA_cell_type_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp390/git/drosophila-anatomy-developmental-ontology/cell_type_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5850CD6D-854A-D84A-B83A-2609359D63B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33204F09-9354-8C48-9941-7DF689B527F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="22940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="234">
   <si>
     <t>Adult:</t>
   </si>
@@ -516,15 +516,6 @@
   </si>
   <si>
     <t>cell that overlaps some "embryonic/larval optic lobe"</t>
-  </si>
-  <si>
-    <t>tracheal system</t>
-  </si>
-  <si>
-    <t>FBbt_00005024</t>
-  </si>
-  <si>
-    <t>tracheal_system_cells.xlsx</t>
   </si>
   <si>
     <t>larval_optic_lobe_cells.xlsx</t>
@@ -721,14 +712,32 @@
     <t>"part of" some cuticle and "part of" some larva; also sensory neurons?</t>
   </si>
   <si>
-    <t>split adult/larval</t>
-  </si>
-  <si>
     <t>"sensory neuron" that "part of" some "adult nervous system"; "part of" some cuticle and "part of" some adult; no epidermis terms for adult</t>
   </si>
   <si>
     <t xml:space="preserve">adult_gut_parts.xlsx
 adult_gut_cells.xlsx </t>
+  </si>
+  <si>
+    <t>no adult terms</t>
+  </si>
+  <si>
+    <t>FBbt_00003037</t>
+  </si>
+  <si>
+    <t>FBbt_00000185</t>
+  </si>
+  <si>
+    <t>adult tracheal system</t>
+  </si>
+  <si>
+    <t>embryonic/lraval tracheal system</t>
+  </si>
+  <si>
+    <t>adult_tracheal_system_cells.xlsx</t>
+  </si>
+  <si>
+    <t>embryonic-larval_tracheal_system_cells.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1542,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0444C43-5519-C341-B62B-340E164F0831}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1565,13 +1574,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1587,13 +1596,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" s="6"/>
       <c r="G2" s="5"/>
@@ -1606,13 +1615,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -1621,16 +1630,16 @@
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1638,16 +1647,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1655,13 +1664,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -1670,13 +1679,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -1693,8 +1702,8 @@
       <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>228</v>
+      <c r="E8" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1710,9 +1719,7 @@
       <c r="D9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -1781,16 +1788,16 @@
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -1827,7 +1834,7 @@
         <v>108</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1865,13 +1872,13 @@
         <v>111</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -1950,16 +1957,16 @@
         <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1967,16 +1974,16 @@
         <v>123</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1987,13 +1994,13 @@
         <v>142</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2001,16 +2008,16 @@
         <v>132</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2018,16 +2025,16 @@
         <v>130</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -2035,16 +2042,16 @@
         <v>125</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2052,16 +2059,16 @@
         <v>126</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2069,13 +2076,13 @@
         <v>127</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2111,7 +2118,7 @@
         <v>131</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>152</v>
@@ -2142,16 +2149,16 @@
         <v>135</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -2159,7 +2166,7 @@
         <v>136</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>158</v>
@@ -2176,50 +2183,46 @@
         <v>133</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>228</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">

--- a/cell_type_reports/_FCA_cell_type_lists.xlsx
+++ b/cell_type_reports/_FCA_cell_type_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp390/git/drosophila-anatomy-developmental-ontology/cell_type_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33204F09-9354-8C48-9941-7DF689B527F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D60F247-6645-3A43-BEC0-C770B6549582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="22940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,12 +686,6 @@
     <t>FBbt_00048484</t>
   </si>
   <si>
-    <t>embryonic/larval muscle system; larval cuticle part; embryonic/larval epidermis</t>
-  </si>
-  <si>
-    <t>FBbt_00000462; FBbt_00048483; FBbt_00005398</t>
-  </si>
-  <si>
     <t>adult_muscle_system_cells.xlsx
 adult_sensory_neurons.xlsx
 adult_cuticle_parts.xlsx</t>
@@ -706,12 +700,6 @@
     <t>adult_cuticle_parts.xslx</t>
   </si>
   <si>
-    <t>embryonic-larval_muscle_system_cells.xlsx; embryonic-larval_cuticle_parts.xlsx; embryonic-larval_epidermis_parts.xlsx</t>
-  </si>
-  <si>
-    <t>"part of" some cuticle and "part of" some larva; also sensory neurons?</t>
-  </si>
-  <si>
     <t>"sensory neuron" that "part of" some "adult nervous system"; "part of" some cuticle and "part of" some adult; no epidermis terms for adult</t>
   </si>
   <si>
@@ -738,6 +726,18 @@
   </si>
   <si>
     <t>embryonic-larval_tracheal_system_cells.xlsx</t>
+  </si>
+  <si>
+    <t>embryonic/larval muscle system; larval cuticle part; embryonic/larval epidermis; embryonic/larval sensory neuron</t>
+  </si>
+  <si>
+    <t>FBbt_00000462; FBbt_00048483; FBbt_00005398; FBbt_00048485</t>
+  </si>
+  <si>
+    <t>"part of" some cuticle and "part of" some larva; "sensory neuron" that "part of" some "embryonic/larval nervous system"</t>
+  </si>
+  <si>
+    <t>embryonic-larval_muscle_system_cells.xlsx; embryonic-larval_cuticle_parts.xlsx; embryonic-larval_epidermis_parts.xlsx; embryonic-larval_sensory_neurons.xlsx</t>
   </si>
 </sst>
 </file>
@@ -774,18 +774,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -800,14 +794,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1552,7 +1543,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E40"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1585,11 +1576,11 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -1604,11 +1595,11 @@
       <c r="D2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -1623,23 +1614,23 @@
       <c r="D3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1647,7 +1638,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>214</v>
@@ -1660,10 +1651,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>205</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1672,13 +1663,13 @@
       <c r="D6" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>210</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1687,7 +1678,7 @@
       <c r="D7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1702,8 +1693,8 @@
       <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>227</v>
+      <c r="E8" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1719,7 +1710,7 @@
       <c r="D9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -1788,18 +1779,18 @@
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -1833,8 +1824,8 @@
       <c r="A17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>226</v>
+      <c r="B17" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1842,11 +1833,11 @@
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -1861,11 +1852,11 @@
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -1880,7 +1871,7 @@
       <c r="D19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -2183,30 +2174,30 @@
         <v>133</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>224</v>
+      </c>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E40" s="6"/>
+        <v>225</v>
+      </c>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">

--- a/cell_type_reports/_FCA_cell_type_lists.xlsx
+++ b/cell_type_reports/_FCA_cell_type_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp390/git/drosophila-anatomy-developmental-ontology/cell_type_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D60F247-6645-3A43-BEC0-C770B6549582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2E182-C8D0-B641-9BD8-8E42040C28DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="22940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/cell_type_reports/_FCA_cell_type_lists.xlsx
+++ b/cell_type_reports/_FCA_cell_type_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp390/git/drosophila-anatomy-developmental-ontology/cell_type_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2E182-C8D0-B641-9BD8-8E42040C28DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C265C8C3-73A3-BF4E-8B5E-A82B45BED78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="22940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,9 +364,6 @@
     <t>adult: Malpighian tubule</t>
   </si>
   <si>
-    <t>adult_Malpighian_tubule_cells.xlsx</t>
-  </si>
-  <si>
     <t>adult: optic lobe</t>
   </si>
   <si>
@@ -379,20 +376,10 @@
     <t>larva: gut</t>
   </si>
   <si>
-    <t>embryonic-larval_gut_parts.xlsx
-embryonic-larval_gut_cells.xlsx</t>
-  </si>
-  <si>
     <t>larva: lymph gland</t>
   </si>
   <si>
-    <t>embryonic-larval_lymph_gland_cells.xlsx</t>
-  </si>
-  <si>
     <t>larva: Malpighian tubule</t>
-  </si>
-  <si>
-    <t>embryonic-larval_Malpighian_tubule_cells.xlsx</t>
   </si>
   <si>
     <t>adult: oenocyte</t>
@@ -703,10 +690,6 @@
     <t>"sensory neuron" that "part of" some "adult nervous system"; "part of" some cuticle and "part of" some adult; no epidermis terms for adult</t>
   </si>
   <si>
-    <t xml:space="preserve">adult_gut_parts.xlsx
-adult_gut_cells.xlsx </t>
-  </si>
-  <si>
     <t>no adult terms</t>
   </si>
   <si>
@@ -738,6 +721,21 @@
   </si>
   <si>
     <t>embryonic-larval_muscle_system_cells.xlsx; embryonic-larval_cuticle_parts.xlsx; embryonic-larval_epidermis_parts.xlsx; embryonic-larval_sensory_neurons.xlsx</t>
+  </si>
+  <si>
+    <t>adult_Malpighian_tubule_parts.xlsx</t>
+  </si>
+  <si>
+    <t>embryonic-larval_gut_parts.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adult_gut_cells.xlsx </t>
+  </si>
+  <si>
+    <t>embryonic-larval_Malpighian_tubule_parts.xlsx</t>
+  </si>
+  <si>
+    <t>embryonic-larval_lymph_gland_parts.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1542,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0444C43-5519-C341-B62B-340E164F0831}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1565,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1587,13 +1585,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="4"/>
@@ -1606,13 +1604,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1621,16 +1619,16 @@
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1638,16 +1636,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1655,13 +1653,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1670,13 +1668,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1694,7 +1692,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1740,7 +1738,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1771,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -1779,16 +1777,16 @@
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -1800,10 +1798,10 @@
         <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1820,12 +1818,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1844,7 +1842,7 @@
         <v>109</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1860,25 +1858,25 @@
     </row>
     <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>81</v>
@@ -1887,12 +1885,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
@@ -1903,10 +1901,10 @@
     </row>
     <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>67</v>
@@ -1915,12 +1913,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>75</v>
@@ -1931,10 +1929,10 @@
     </row>
     <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
@@ -1945,280 +1943,280 @@
     </row>
     <row r="25" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>15</v>

--- a/cell_type_reports/_FCA_cell_type_lists.xlsx
+++ b/cell_type_reports/_FCA_cell_type_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp390/git/drosophila-anatomy-developmental-ontology/cell_type_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C265C8C3-73A3-BF4E-8B5E-A82B45BED78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BDE753-A540-854D-93AC-788866573FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="22940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="230">
   <si>
     <t>Adult:</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t>larva: ventral nerve cord</t>
-  </si>
-  <si>
-    <t>NOT USED:</t>
   </si>
   <si>
     <t>male accessory gland</t>
@@ -693,24 +690,6 @@
     <t>no adult terms</t>
   </si>
   <si>
-    <t>FBbt_00003037</t>
-  </si>
-  <si>
-    <t>FBbt_00000185</t>
-  </si>
-  <si>
-    <t>adult tracheal system</t>
-  </si>
-  <si>
-    <t>embryonic/lraval tracheal system</t>
-  </si>
-  <si>
-    <t>adult_tracheal_system_cells.xlsx</t>
-  </si>
-  <si>
-    <t>embryonic-larval_tracheal_system_cells.xlsx</t>
-  </si>
-  <si>
     <t>embryonic/larval muscle system; larval cuticle part; embryonic/larval epidermis; embryonic/larval sensory neuron</t>
   </si>
   <si>
@@ -736,6 +715,15 @@
   </si>
   <si>
     <t>embryonic-larval_lymph_gland_parts.xlsx</t>
+  </si>
+  <si>
+    <t>tracheal_system_cells.xlsx</t>
+  </si>
+  <si>
+    <t>tracheal system</t>
+  </si>
+  <si>
+    <t>FBbt_00005024</t>
   </si>
 </sst>
 </file>
@@ -1121,9 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1538,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0444C43-5519-C341-B62B-340E164F0831}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1563,13 +1549,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1585,13 +1571,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="4"/>
@@ -1604,13 +1590,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1619,16 +1605,16 @@
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1636,16 +1622,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1653,13 +1639,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1668,13 +1654,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1692,7 +1678,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1738,7 +1724,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1769,7 +1755,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -1777,16 +1763,16 @@
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -1798,10 +1784,10 @@
         <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1823,7 +1809,7 @@
         <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1842,7 +1828,7 @@
         <v>109</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1861,13 +1847,13 @@
         <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -1890,7 +1876,7 @@
         <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
@@ -1904,7 +1890,7 @@
         <v>114</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>67</v>
@@ -1918,7 +1904,7 @@
         <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>75</v>
@@ -1946,16 +1932,16 @@
         <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1963,16 +1949,16 @@
         <v>119</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1980,16 +1966,16 @@
         <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1997,16 +1983,16 @@
         <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2014,16 +2000,16 @@
         <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -2031,16 +2017,16 @@
         <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2048,16 +2034,16 @@
         <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2065,13 +2051,13 @@
         <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2079,13 +2065,13 @@
         <v>124</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2093,13 +2079,13 @@
         <v>125</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -2107,16 +2093,16 @@
         <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2124,13 +2110,13 @@
         <v>130</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -2138,16 +2124,16 @@
         <v>131</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -2155,16 +2141,16 @@
         <v>132</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2172,13 +2158,13 @@
         <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E39" s="5"/>
     </row>
@@ -2187,13 +2173,13 @@
         <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E40" s="5"/>
     </row>
@@ -2202,27 +2188,16 @@
         <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/cell_type_reports/_FCA_cell_type_lists.xlsx
+++ b/cell_type_reports/_FCA_cell_type_lists.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp390/git/drosophila-anatomy-developmental-ontology/cell_type_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BDE753-A540-854D-93AC-788866573FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642B61B5-26C8-854A-9583-E19A33345586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="22940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="232">
   <si>
     <t>Adult:</t>
   </si>
@@ -451,9 +451,6 @@
     <t>eye</t>
   </si>
   <si>
-    <t>eye_parts.xlsx</t>
-  </si>
-  <si>
     <t>FBbt_00003154</t>
   </si>
   <si>
@@ -595,21 +592,12 @@
     <t>eye-antennal disc</t>
   </si>
   <si>
-    <t>wing disc</t>
-  </si>
-  <si>
-    <t>wing_disc_parts.xlsx</t>
-  </si>
-  <si>
     <t>eye-antennal_disc_parts.xlsx</t>
   </si>
   <si>
     <t>FBbt_00001766</t>
   </si>
   <si>
-    <t>FBbt_00001778</t>
-  </si>
-  <si>
     <t>FBbt_00003702; FBbt_00100517</t>
   </si>
   <si>
@@ -620,9 +608,6 @@
   </si>
   <si>
     <t>overlaps some "adult corpus cardiacum"</t>
-  </si>
-  <si>
-    <t>corpus_cardiacum_cells.xlsx</t>
   </si>
   <si>
     <t>adult corpus cardiacum neuron</t>
@@ -705,12 +690,6 @@
     <t>adult_Malpighian_tubule_parts.xlsx</t>
   </si>
   <si>
-    <t>embryonic-larval_gut_parts.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adult_gut_cells.xlsx </t>
-  </si>
-  <si>
     <t>embryonic-larval_Malpighian_tubule_parts.xlsx</t>
   </si>
   <si>
@@ -724,6 +703,34 @@
   </si>
   <si>
     <t>FBbt_00005024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wing_disc_parts.xlsx; ext_SOP_cells.xlsx
+</t>
+  </si>
+  <si>
+    <t>wing disc; external sensory organ precursor cell</t>
+  </si>
+  <si>
+    <t>FBbt_00001778; FBbt:000005164</t>
+  </si>
+  <si>
+    <t>wd added imaginal disc epithelial cell and peripodial epithelium; ext_SOP also added sens mother cell</t>
+  </si>
+  <si>
+    <t>subtracted cells from all parts</t>
+  </si>
+  <si>
+    <t>embryonic-larval_gut_cells.xlsx; embryonic-larval_gut_nocells.xlsx</t>
+  </si>
+  <si>
+    <t>adult_gut_cells.xlsx; adult_gut_nocells.xlsx</t>
+  </si>
+  <si>
+    <t>eye_cells.xlsx</t>
+  </si>
+  <si>
+    <t>adult_corpus_cardiacum_cells.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1526,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0444C43-5519-C341-B62B-340E164F0831}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1549,13 +1556,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1571,13 +1578,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="4"/>
@@ -1585,36 +1592,38 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1622,16 +1631,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1639,13 +1648,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1654,13 +1663,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1678,7 +1687,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1724,7 +1733,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1755,7 +1764,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -1763,16 +1772,16 @@
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -1809,13 +1818,16 @@
         <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1828,7 +1840,7 @@
         <v>109</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1847,13 +1859,13 @@
         <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -1871,18 +1883,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1890,7 +1905,7 @@
         <v>114</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>67</v>
@@ -1904,7 +1919,7 @@
         <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>75</v>
@@ -1932,16 +1947,16 @@
         <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1949,16 +1964,16 @@
         <v>119</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1969,13 +1984,13 @@
         <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1983,16 +1998,16 @@
         <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2000,16 +2015,16 @@
         <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -2017,16 +2032,16 @@
         <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2034,16 +2049,16 @@
         <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2051,13 +2066,13 @@
         <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2065,13 +2080,13 @@
         <v>124</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2079,13 +2094,13 @@
         <v>125</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -2093,16 +2108,16 @@
         <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2110,13 +2125,13 @@
         <v>130</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -2124,16 +2139,16 @@
         <v>131</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.15">
@@ -2141,16 +2156,16 @@
         <v>132</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2158,13 +2173,13 @@
         <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E39" s="5"/>
     </row>
@@ -2173,13 +2188,13 @@
         <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E40" s="5"/>
     </row>
@@ -2188,16 +2203,16 @@
         <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/cell_type_reports/_FCA_cell_type_lists.xlsx
+++ b/cell_type_reports/_FCA_cell_type_lists.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp390/git/drosophila-anatomy-developmental-ontology/cell_type_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642B61B5-26C8-854A-9583-E19A33345586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC043E0-AAF6-404A-882C-F8105B266F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="22940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old version" sheetId="1" r:id="rId1"/>
     <sheet name="Nov '19" sheetId="2" r:id="rId2"/>
+    <sheet name="spreadsheet details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="266">
   <si>
     <t>Adult:</t>
   </si>
@@ -592,10 +593,16 @@
     <t>eye-antennal disc</t>
   </si>
   <si>
+    <t>wing disc</t>
+  </si>
+  <si>
     <t>eye-antennal_disc_parts.xlsx</t>
   </si>
   <si>
     <t>FBbt_00001766</t>
+  </si>
+  <si>
+    <t>FBbt_00001778</t>
   </si>
   <si>
     <t>FBbt_00003702; FBbt_00100517</t>
@@ -675,18 +682,6 @@
     <t>no adult terms</t>
   </si>
   <si>
-    <t>embryonic/larval muscle system; larval cuticle part; embryonic/larval epidermis; embryonic/larval sensory neuron</t>
-  </si>
-  <si>
-    <t>FBbt_00000462; FBbt_00048483; FBbt_00005398; FBbt_00048485</t>
-  </si>
-  <si>
-    <t>"part of" some cuticle and "part of" some larva; "sensory neuron" that "part of" some "embryonic/larval nervous system"</t>
-  </si>
-  <si>
-    <t>embryonic-larval_muscle_system_cells.xlsx; embryonic-larval_cuticle_parts.xlsx; embryonic-larval_epidermis_parts.xlsx; embryonic-larval_sensory_neurons.xlsx</t>
-  </si>
-  <si>
     <t>adult_Malpighian_tubule_parts.xlsx</t>
   </si>
   <si>
@@ -712,6 +707,9 @@
     <t>wing disc; external sensory organ precursor cell</t>
   </si>
   <si>
+    <t>ext_SOP also added sens mother cell</t>
+  </si>
+  <si>
     <t>FBbt_00001778; FBbt:000005164</t>
   </si>
   <si>
@@ -731,6 +729,112 @@
   </si>
   <si>
     <t>adult_corpus_cardiacum_cells.xlsx</t>
+  </si>
+  <si>
+    <t>integ non-stage-spec</t>
+  </si>
+  <si>
+    <t>embryonic-larval_cuticle_parts.xlsx</t>
+  </si>
+  <si>
+    <t>larval cuticle part</t>
+  </si>
+  <si>
+    <t>FBbt_00048483</t>
+  </si>
+  <si>
+    <t>"part of" some cuticle and "part of" some larva</t>
+  </si>
+  <si>
+    <t>integument_cells_no_muscle_or_neurons.xlsx</t>
+  </si>
+  <si>
+    <t>integumentary system</t>
+  </si>
+  <si>
+    <t>"cell" that "overlaps" some "integumentary system" subtracting neurons and muscle</t>
+  </si>
+  <si>
+    <t>"cell" that "overlaps" some "integumentary system" subtracting neurons and muscle; "sensory neuron" that "part of" some "embryonic/larval nervous system"</t>
+  </si>
+  <si>
+    <t>FBbt_00004969</t>
+  </si>
+  <si>
+    <t>embryonic/larval muscle system; integumentary system; embryonic/larval epidermis; embryonic/larval sensory neuron; sense organ</t>
+  </si>
+  <si>
+    <t>FBbt_00000462; FBbt_00004969; FBbt_00005398; FBbt_00048485; FBbt_00005155</t>
+  </si>
+  <si>
+    <t>embryonic-larval_muscle_system_cells.xlsx; integument_cells_no_muscle_or_neurons.xlsx; embryonic-larval_epidermis_parts.xlsx; embryonic-larval_sensory_neurons.xlsx; larva_general_sense_organ_cells.xlsx</t>
+  </si>
+  <si>
+    <t>integument_cells_no_muscle_or_neurons.xlsx; adult_general_sense_organ_cells.xlsx</t>
+  </si>
+  <si>
+    <t>integumentary system; sense organ</t>
+  </si>
+  <si>
+    <t>"cell" that "overlaps" some "integumentary system" subtracting neurons and muscle; cell that overlaps some 'sense organ' subtracted neurons and eye cells (manually removed lch5 cells(2) and 'ocellus corneagenous cell')</t>
+  </si>
+  <si>
+    <t>"cell" that "overlaps" some "integumentary system" subtracting neurons and muscle; "sensory neuron" that "part of" some "embryonic/larval nervous system"; cell that overlaps some 'sense organ' subtracted neurons and eye cells (manually removed 'ocellus corneagenous cell')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wing_disc_parts.xlsx
+</t>
+  </si>
+  <si>
+    <t>ext_SOP_cells.xlsx</t>
+  </si>
+  <si>
+    <t>external sensory organ precursor cell</t>
+  </si>
+  <si>
+    <t>FBbt:000005164</t>
+  </si>
+  <si>
+    <t>wd added imaginal disc epithelial cell and peripodial epithelium</t>
+  </si>
+  <si>
+    <t>wing-related feature (not on master</t>
+  </si>
+  <si>
+    <t>proboscis-related feature (not on master)</t>
+  </si>
+  <si>
+    <t>maxillary palpus-related feature (not on master)</t>
+  </si>
+  <si>
+    <t>adult corpus cardiacum neuron (not on master)</t>
+  </si>
+  <si>
+    <t>larva_general_sense_organ_cells.xlsx</t>
+  </si>
+  <si>
+    <t>sense organ</t>
+  </si>
+  <si>
+    <t>FBbt_00005155</t>
+  </si>
+  <si>
+    <t>adult_general_sense_organ_cells.xlsx</t>
+  </si>
+  <si>
+    <t>cell that overlaps some 'sense organ' subtracted neurons and eye cells (manually removed 'ocellus corneagenous cell')</t>
+  </si>
+  <si>
+    <t>cell that overlaps some 'sense organ' subtracted neurons and eye cells (manually removed lch5 cells(2) and 'ocellus corneagenous cell')</t>
+  </si>
+  <si>
+    <t>embryonic-larval_muscle_system_cells.xlsx; embryonic-larval_epidermis_parts.xlsx; embryonic-larval_sensory_neurons.xlsx</t>
+  </si>
+  <si>
+    <t>embryonic/larval muscle system; embryonic/larval epidermis; embryonic/larval sensory neuron</t>
+  </si>
+  <si>
+    <t>FBbt_00000462; FBbt_00005398; FBbt_00048485</t>
   </si>
 </sst>
 </file>
@@ -787,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -798,6 +902,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1116,7 +1226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1533,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0444C43-5519-C341-B62B-340E164F0831}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1578,13 +1690,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="4"/>
@@ -1597,50 +1709,53 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" ht="126" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -1648,13 +1763,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1663,13 +1778,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1687,7 +1802,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1772,16 +1887,16 @@
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -1818,7 +1933,7 @@
         <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1827,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1840,7 +1955,7 @@
         <v>109</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1859,13 +1974,13 @@
         <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -1888,7 +2003,7 @@
         <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
@@ -1897,7 +2012,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1905,7 +2020,7 @@
         <v>114</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>67</v>
@@ -1919,7 +2034,7 @@
         <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>75</v>
@@ -2032,16 +2147,16 @@
         <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2049,16 +2164,16 @@
         <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2080,7 +2195,7 @@
         <v>124</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>138</v>
@@ -2108,7 +2223,7 @@
         <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>146</v>
@@ -2139,7 +2254,7 @@
         <v>131</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>176</v>
@@ -2173,13 +2288,13 @@
         <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="E39" s="5"/>
     </row>
@@ -2188,13 +2303,13 @@
         <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="E40" s="5"/>
     </row>
@@ -2203,7 +2318,7 @@
         <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>181</v>
@@ -2219,4 +2334,560 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B902FE-5C69-C645-B9A6-095CC7BF92DB}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+    <sortCondition ref="A2:A41"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cell_type_reports/_FCA_cell_type_lists.xlsx
+++ b/cell_type_reports/_FCA_cell_type_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cp390/git/drosophila-anatomy-developmental-ontology/cell_type_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC043E0-AAF6-404A-882C-F8105B266F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D9432-0EBA-7B49-BC5F-89F6B7C3F371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="22940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="22940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old version" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="261">
   <si>
     <t>Adult:</t>
   </si>
@@ -509,9 +509,6 @@
     <t>leg_parts.xlsx</t>
   </si>
   <si>
-    <t>wing-related feature</t>
-  </si>
-  <si>
     <t>overlaps some leg</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>overlaps some wing</t>
   </si>
   <si>
-    <t>proboscis-related feature</t>
-  </si>
-  <si>
     <t>FBbt_00048478</t>
   </si>
   <si>
@@ -545,9 +539,6 @@
     <t>maxillary_palp_parts.xlsx</t>
   </si>
   <si>
-    <t>maxillary palpus-related feature</t>
-  </si>
-  <si>
     <t>FBbt_00048479</t>
   </si>
   <si>
@@ -617,15 +608,9 @@
     <t>overlaps some "adult corpus cardiacum"</t>
   </si>
   <si>
-    <t>adult corpus cardiacum neuron</t>
-  </si>
-  <si>
     <t>FBbt_00048482</t>
   </si>
   <si>
-    <t>(included)</t>
-  </si>
-  <si>
     <t>fat_body_cells.xlsx; adult_fat_body_parts.xlsx</t>
   </si>
   <si>
@@ -662,21 +647,7 @@
     <t>FBbt_00048484</t>
   </si>
   <si>
-    <t>adult_muscle_system_cells.xlsx
-adult_sensory_neurons.xlsx
-adult_cuticle_parts.xlsx</t>
-  </si>
-  <si>
-    <t>adult sensory neuron (not on master); adult muscle system; adult cuticle part</t>
-  </si>
-  <si>
-    <t>FBbt_00048404; FBbt_00003218; FBbt_00048484</t>
-  </si>
-  <si>
     <t>adult_cuticle_parts.xslx</t>
-  </si>
-  <si>
-    <t>"sensory neuron" that "part of" some "adult nervous system"; "part of" some cuticle and "part of" some adult; no epidermis terms for adult</t>
   </si>
   <si>
     <t>no adult terms</t>
@@ -704,18 +675,9 @@
 </t>
   </si>
   <si>
-    <t>wing disc; external sensory organ precursor cell</t>
-  </si>
-  <si>
     <t>ext_SOP also added sens mother cell</t>
   </si>
   <si>
-    <t>FBbt_00001778; FBbt:000005164</t>
-  </si>
-  <si>
-    <t>wd added imaginal disc epithelial cell and peripodial epithelium; ext_SOP also added sens mother cell</t>
-  </si>
-  <si>
     <t>subtracted cells from all parts</t>
   </si>
   <si>
@@ -731,9 +693,6 @@
     <t>adult_corpus_cardiacum_cells.xlsx</t>
   </si>
   <si>
-    <t>integ non-stage-spec</t>
-  </si>
-  <si>
     <t>embryonic-larval_cuticle_parts.xlsx</t>
   </si>
   <si>
@@ -755,31 +714,7 @@
     <t>"cell" that "overlaps" some "integumentary system" subtracting neurons and muscle</t>
   </si>
   <si>
-    <t>"cell" that "overlaps" some "integumentary system" subtracting neurons and muscle; "sensory neuron" that "part of" some "embryonic/larval nervous system"</t>
-  </si>
-  <si>
     <t>FBbt_00004969</t>
-  </si>
-  <si>
-    <t>embryonic/larval muscle system; integumentary system; embryonic/larval epidermis; embryonic/larval sensory neuron; sense organ</t>
-  </si>
-  <si>
-    <t>FBbt_00000462; FBbt_00004969; FBbt_00005398; FBbt_00048485; FBbt_00005155</t>
-  </si>
-  <si>
-    <t>embryonic-larval_muscle_system_cells.xlsx; integument_cells_no_muscle_or_neurons.xlsx; embryonic-larval_epidermis_parts.xlsx; embryonic-larval_sensory_neurons.xlsx; larva_general_sense_organ_cells.xlsx</t>
-  </si>
-  <si>
-    <t>integument_cells_no_muscle_or_neurons.xlsx; adult_general_sense_organ_cells.xlsx</t>
-  </si>
-  <si>
-    <t>integumentary system; sense organ</t>
-  </si>
-  <si>
-    <t>"cell" that "overlaps" some "integumentary system" subtracting neurons and muscle; cell that overlaps some 'sense organ' subtracted neurons and eye cells (manually removed lch5 cells(2) and 'ocellus corneagenous cell')</t>
-  </si>
-  <si>
-    <t>"cell" that "overlaps" some "integumentary system" subtracting neurons and muscle; "sensory neuron" that "part of" some "embryonic/larval nervous system"; cell that overlaps some 'sense organ' subtracted neurons and eye cells (manually removed 'ocellus corneagenous cell')</t>
   </si>
   <si>
     <t xml:space="preserve">wing_disc_parts.xlsx
@@ -810,31 +745,81 @@
     <t>adult corpus cardiacum neuron (not on master)</t>
   </si>
   <si>
-    <t>larva_general_sense_organ_cells.xlsx</t>
-  </si>
-  <si>
     <t>sense organ</t>
   </si>
   <si>
     <t>FBbt_00005155</t>
   </si>
   <si>
-    <t>adult_general_sense_organ_cells.xlsx</t>
-  </si>
-  <si>
-    <t>cell that overlaps some 'sense organ' subtracted neurons and eye cells (manually removed 'ocellus corneagenous cell')</t>
-  </si>
-  <si>
     <t>cell that overlaps some 'sense organ' subtracted neurons and eye cells (manually removed lch5 cells(2) and 'ocellus corneagenous cell')</t>
   </si>
   <si>
-    <t>embryonic-larval_muscle_system_cells.xlsx; embryonic-larval_epidermis_parts.xlsx; embryonic-larval_sensory_neurons.xlsx</t>
-  </si>
-  <si>
-    <t>embryonic/larval muscle system; embryonic/larval epidermis; embryonic/larval sensory neuron</t>
-  </si>
-  <si>
-    <t>FBbt_00000462; FBbt_00005398; FBbt_00048485</t>
+    <t>integument_cells_no_muscle_or_neurons.xlsx; general_sense_organ_cells.xlsx</t>
+  </si>
+  <si>
+    <t>embryonic-larval_muscle_system_cells.xlsx; integument_cells_no_muscle_or_neurons.xlsx; embryonic-larval_epidermis_parts.xlsx; embryonic-larval_sensory_neurons.xlsx; general_sense_organ_cells.xlsx</t>
+  </si>
+  <si>
+    <t>general_sense_organ_cells.xlsx</t>
+  </si>
+  <si>
+    <t>adult_muscle_system_cells.xlsx
+adult_sensory_neurons_non-redundant.xlsx
+adult_cuticle_parts.xlsx</t>
+  </si>
+  <si>
+    <t>adult_sensory_neurons.xlsx</t>
+  </si>
+  <si>
+    <t>sensory neuron that "part of" some "adult nervous system"</t>
+  </si>
+  <si>
+    <t>adult_sensory_neurons_non-redundant.xlsx</t>
+  </si>
+  <si>
+    <t>sensory neuron</t>
+  </si>
+  <si>
+    <t>sensory neuron that overlaps some adult - (wing + leg + antanna + maxillary palp + eye + proboscis neurons)</t>
+  </si>
+  <si>
+    <t>FBbt_00005124</t>
+  </si>
+  <si>
+    <t>adult_muscle_system_cells.xlsx</t>
+  </si>
+  <si>
+    <t>adult_cuticle_parts.xlsx</t>
+  </si>
+  <si>
+    <t>no adult epidermis terms</t>
+  </si>
+  <si>
+    <t>embryonic-larval_epidermis_parts.xlsx</t>
+  </si>
+  <si>
+    <t>embryonic/larval epidermis</t>
+  </si>
+  <si>
+    <t>FBbt_00005398</t>
+  </si>
+  <si>
+    <t>embryonic/larval muscle system; embryonic/larval epidermis</t>
+  </si>
+  <si>
+    <t>embryonic-larval_muscle_system_cells.xlsx</t>
+  </si>
+  <si>
+    <t>embryonic-larval_sensory_neurons.xlsx</t>
+  </si>
+  <si>
+    <t>embryonic/larval sensory neuron</t>
+  </si>
+  <si>
+    <t>"sensory neuron" that "part of" some "embryonic/larval nervous system"</t>
+  </si>
+  <si>
+    <t>FBbt_00048485</t>
   </si>
 </sst>
 </file>
@@ -1643,691 +1628,369 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0444C43-5519-C341-B62B-340E164F0831}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="67.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="67.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="126" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>226</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2338,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B902FE-5C69-C645-B9A6-095CC7BF92DB}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2355,13 +2018,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2391,49 +2054,49 @@
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -2442,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2458,7 +2121,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -2467,426 +2130,478 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>213</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>235</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>223</v>
+        <v>74</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>197</v>
+      <c r="A24" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>202</v>
+        <v>79</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>157</v>
+        <v>185</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>169</v>
+      <c r="A31" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>175</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="5"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="D45" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>164</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
-    <sortCondition ref="A2:A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D46">
+    <sortCondition ref="A2:A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
